--- a/data-raw/data-tidy/hack-tianyan/hub/match-tianyan-tot5-2023-07-11-hand.xlsx
+++ b/data-raw/data-tidy/hack-tianyan/hub/match-tianyan-tot5-2023-07-11-hand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\techme\data-raw\data-tidy\hack-tianyan\hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433EA50A-51E2-43F1-8B21-895BAB248302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8669A47-2A7F-4CBD-AC7C-B854840F25F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>index</t>
   </si>
@@ -146,6 +146,50 @@
   </si>
   <si>
     <t>呼和浩特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水利部交通运输部国家能源局南京水利科学研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>江苏省南京市广州路223号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tianyancha.com/company/1003081152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国热带农业科学院广州实验站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tianyancha.com/company/2325546651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省广州市荔湾区康王中路241号</t>
+  </si>
+  <si>
+    <t>广州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -190,6 +234,19 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,13 +268,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -514,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +629,7 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -598,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -625,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="5" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -652,7 +710,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="5" t="s">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -689,6 +747,58 @@
       </c>
       <c r="I6" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
